--- a/üres.xlsx
+++ b/üres.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
   <si>
     <t>ÚTNYILVÁNTARTÁS</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Szombathely Éhen Gyula tér 2.</t>
+  </si>
+  <si>
+    <t>K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>Százhalombatta Damjanich u. 29.</t>
+  </si>
+  <si>
+    <t>Mezőberény Kossuth tér 13.</t>
   </si>
 </sst>
 </file>
@@ -1153,13 +1165,13 @@
         <v>30</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>34</v>
@@ -1168,7 +1180,7 @@
         <v>35</v>
       </c>
       <c r="I10" s="21" t="n">
-        <v>341.0</v>
+        <v>254.0</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>36</v>
